--- a/output.xlsx
+++ b/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M-MN 管理</t>
+          <t>M-SL 営業</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
@@ -490,7 +490,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,19 +498,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>74.25</v>
+        <v>157</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="H2" t="n">
-        <v>0.928125</v>
+        <v>0.98125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M-MT ミーティング</t>
+          <t>M-MN 管理</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,29 +526,27 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>146.25</v>
+        <v>68.75</v>
       </c>
       <c r="G3" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9140625</v>
+        <v>0.859375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PP-IC-OP オペレーション教育</t>
+          <t>M-BT 出張</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45224</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45226</v>
-      </c>
+        <v>45209</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -556,29 +554,27 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" t="n">
+        <v>80</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>24</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PP-MC メカ全体</t>
+          <t>M-MT ミーティング</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45224</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45230</v>
-      </c>
+        <v>45209</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -586,29 +582,29 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>68</v>
       </c>
       <c r="G5" t="n">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03125</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PP-HD-BA 基本機構の理解</t>
+          <t>PP-IC-IN インストール</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
         <v>45224</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>45230</v>
+        <v>45226</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -616,29 +612,29 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PP-HD-MD 対象メディアの理解</t>
+          <t>PP-IC-OP オペレーション教育</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
         <v>45224</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>45225</v>
+        <v>45226</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -646,29 +642,29 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>-14.5</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>0.875</v>
+        <v>-0.6041666666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PP-EL-MP メイン基板</t>
+          <t>PT-OC OrCAD</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
         <v>45224</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>45225</v>
+        <v>45224</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -676,29 +672,29 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PP-SW-FW ファーム</t>
+          <t>PP-MC メカ全体</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
         <v>45224</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -706,27 +702,29 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>-1.5</v>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>0.85</v>
+        <v>-0.09375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PI-EV-MS MES評価</t>
+          <t>PP-HD-BA 基本機構の理解</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>45230</v>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -734,27 +732,29 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PI-EV-BE 基板等の電気的評価</t>
+          <t>PP-HD-MD 対象メディアの理解</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>45224</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45225</v>
+      </c>
       <c r="D11" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -762,27 +762,29 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
         <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PI-EV-PE 製品の電気的評価</t>
+          <t>PP-EL-MP メイン基板</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>45224</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45225</v>
+      </c>
       <c r="D12" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -790,27 +792,29 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>-10.5</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3125</v>
+        <v>-0.65625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PI-EV-SS 安全規格の評価</t>
+          <t>PP-EL-CP 子基板</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>45224</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45225</v>
+      </c>
       <c r="D13" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -818,27 +822,29 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PI-EV-GN 全体動作の評価</t>
+          <t>PP-EL-PP 電源</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>45224</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45225</v>
+      </c>
       <c r="D14" s="2" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -846,13 +852,267 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>0.59375</v>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PP-SW-FW ファーム</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" t="n">
+        <v>40</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PP-IS-HD ヘッド</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PI-EV-SV サービス性</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.609375</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PI-EV-IV 固有評価</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PI-EV-MS MES評価</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.125</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PI-EV-BE 基板等の電気的評価</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PI-EV-PE 製品の電気的評価</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PI-EV-SS 安全規格の評価</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PI-EV-GN 全体動作の評価</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>68.75</v>
+        <v>67</v>
       </c>
       <c r="G3" t="n">
         <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>0.859375</v>
+        <v>0.8375</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
         <v>80</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>68</v>
+        <v>35.25</v>
       </c>
       <c r="G5" t="n">
         <v>160</v>
       </c>
       <c r="H5" t="n">
-        <v>0.425</v>
+        <v>0.2203125</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
         <v>45226</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45226</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>45224</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45230</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45230</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>45225</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45225</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -792,13 +792,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-10.5</v>
+        <v>-49</v>
       </c>
       <c r="G12" t="n">
         <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.65625</v>
+        <v>-3.0625</v>
       </c>
     </row>
     <row r="13">
@@ -814,7 +814,7 @@
         <v>45225</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>45225</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>0.625</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="15">
@@ -874,7 +874,7 @@
         <v>45225</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -986,7 +986,7 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="2" t="n">
-        <v>45271</v>
+        <v>45282</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1113,6 +1113,96 @@
       </c>
       <c r="H23" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ES2-PL-PL-EL エレキ</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>16</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.09375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ES2-PL-PL-RV レビュー</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ES2-PL-CD-CD 構想設計資料</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>16</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.78125</v>
       </c>
     </row>
   </sheetData>
